--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st07.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st07.xlsx
@@ -3052,7 +3052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Man"]  It’s just the media playing things up. “If it bleeds, it leads,” you know. That’s how they get paid.
+    <t xml:space="preserve">[name="Man"]  It’s just the media playing things up. 'If it bleeds, it leads,' you know. That’s how they get paid.
 </t>
   </si>
   <si>
@@ -3216,7 +3216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (That sounded like those guys who call themselves “Reunion.” And it was a bunch of them... The one on the left doesn’t look the same as the ones I see on patrol.)
+    <t xml:space="preserve">[name="???"]  (That sounded like those guys who call themselves 'Reunion.' And it was a bunch of them... The one on the left doesn’t look the same as the ones I see on patrol.)
 </t>
   </si>
   <si>
@@ -3340,7 +3340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  As long as any of “our people” are doing those things, then the people here will see us all as thugs.
+    <t xml:space="preserve">[name="Reunion Caster"]  As long as any of 'our people' are doing those things, then the people here will see us all as thugs.
 </t>
   </si>
   <si>
@@ -3672,7 +3672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Once she gets out of the campus and our “controlled” area, she’ll find a place that’s not so peaceful.
+    <t xml:space="preserve">[name="Reunion Caster"]  Once she gets out of the campus and our 'controlled' area, she’ll find a place that’s not so peaceful.
 </t>
   </si>
   <si>
@@ -4076,7 +4076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">“To protect this city.”
+    <t xml:space="preserve">'To protect this city.'
 </t>
   </si>
   <si>
@@ -4484,7 +4484,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  That was super fun! The Doctor is so good at cards. Didn’t lose a single hand! And then taught me how to “poof” out a coin! Like this... “poof!”
+    <t xml:space="preserve">[name="Gummy"]  That was super fun! The Doctor is so good at cards. Didn’t lose a single hand! And then taught me how to 'poof' out a coin! Like this... 'poof!'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st07.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st07.xlsx
@@ -3048,15 +3048,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Man"]  Don’t worry, honey, things aren’t that bad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  It’s just the media playing things up. 'If it bleeds, it leads,' you know. That’s how they get paid.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  Don’t let them scare you.
+    <t xml:space="preserve">[name="Man"]  Don't worry, honey, things aren't that bad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  It's just the media playing things up. 'If it bleeds, it leads,' you know. That's how they get paid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  Don't let them scare you.
 </t>
   </si>
   <si>
@@ -3064,11 +3064,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Woman"]  The man at the smoke shop says not so many nobles come by for liquor anymore. And Aunt Nina, who works at Lord Santelli’s estate, came home. She says the Lord’s entire staff is furloughed.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Woman"]  Don’t you think... don’t you think that means——
+    <t xml:space="preserve">[name="Woman"]  The man at the smoke shop says not so many nobles come by for liquor anymore. And Aunt Nina, who works at Lord Santelli's estate, came home. She says the Lord's entire staff is furloughed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Woman"]  Don't you think... don't you think that means——
 </t>
   </si>
   <si>
@@ -3080,19 +3080,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Man"]  ...Sorry. I shouldn’t have raised my voice. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Woman"]  Loban, I’m just... I’m just so worried.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  I said not to worry. Don’t be scared. I’m here. You can trust me. I will protect you. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  And it’s not only me. I have the rest of the Guard garrison with me, and the Army is just outside the city too. There’s nothing to be afraid of.
+    <t xml:space="preserve">[name="Man"]  ...Sorry. I shouldn't have raised my voice. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Woman"]  Loban, I'm just... I'm just so worried.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  I said not to worry. Don't be scared. I'm here. You can trust me. I will protect you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  And it's not only me. I have the rest of the Guard garrison with me, and the Army is just outside the city too. There's nothing to be afraid of.
 </t>
   </si>
   <si>
@@ -3104,11 +3104,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Man"]  Let’s not trouble your pretty little head. This winter will pass, and when the weather warms up, we’ll go someplace nice. How does that sound?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  And don’t tell Zoya. Let it be just the two of us, off on a romantic getaway. Alright?
+    <t xml:space="preserve">[name="Man"]  Let's not trouble your pretty little head. This winter will pass, and when the weather warms up, we'll go someplace nice. How does that sound?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  And don't tell Zoya. Let it be just the two of us, off on a romantic getaway. Alright?
 </t>
   </si>
   <si>
@@ -3120,15 +3120,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Woman"]  It’s so cold. Where are we going to go for a romantic getaway when the snow melts and the roads turn to mud?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  Isn’t that the perfect way to end the winter? When the time comes, we’ll go dancing, you’ll bring some mead from home, and I’ll bake you cookies myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Woman"]  Oho, bold words. Do you still remember how? I think... we could. Just wait for Zoya to go back to school. When she’s safely in her dormitory, we’ll head off.
+    <t xml:space="preserve">[name="Woman"]  It's so cold. Where are we going to go for a romantic getaway when the snow melts and the roads turn to mud?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  Isn't that the perfect way to end the winter? When the time comes, we'll go dancing, you'll bring some mead from home, and I'll bake you cookies myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Woman"]  Oho, bold words. Do you still remember how? I think... we could. Just wait for Zoya to go back to school. When she's safely in her dormitory, we'll head off.
 </t>
   </si>
   <si>
@@ -3140,7 +3140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Woman"]  Zoya? We were just talking about you. Come, your father’s on the night shift. Say goodbye.
+    <t xml:space="preserve">[name="Woman"]  Zoya? We were just talking about you. Come, your father's on the night shift. Say goodbye.
 </t>
   </si>
   <si>
@@ -3184,7 +3184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  No signal. Can’t make contact.
+    <t xml:space="preserve">[name="???"]  No signal. Can't make contact.
 </t>
   </si>
   <si>
@@ -3192,7 +3192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I’ll make it this time!
+    <t xml:space="preserve">[name="???"]  I'll make it this time!
 </t>
   </si>
   <si>
@@ -3200,7 +3200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (What? Someone’s coming! This isn’t on the patrol route... I have to hide.)
+    <t xml:space="preserve">[name="???"]  (What? Someone's coming! This isn't on the patrol route... I have to hide.)
 </t>
   </si>
   <si>
@@ -3216,7 +3216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (That sounded like those guys who call themselves 'Reunion.' And it was a bunch of them... The one on the left doesn’t look the same as the ones I see on patrol.)
+    <t xml:space="preserve">[name="???"]  (That sounded like those guys who call themselves 'Reunion.' And it was a bunch of them... The one on the left doesn't look the same as the ones I see on patrol.)
 </t>
   </si>
   <si>
@@ -3224,7 +3224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (They’re coming this way!)
+    <t xml:space="preserve">[name="???"]  (They're coming this way!)
 </t>
   </si>
   <si>
@@ -3232,7 +3232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Would he really volunteer to take over? He wants to deal with the students over there? Not sure I believe he’s that kind-hearted.
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Would he really volunteer to take over? He wants to deal with the students over there? Not sure I believe he's that kind-hearted.
 </t>
   </si>
   <si>
@@ -3240,11 +3240,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  That school is a ways away from the one they stationed us at. And if Mephisto is up to something, there’s not much we can do...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  *Sigh*, I hope he can stay focused on the big picture. We don’t want him screwing around.
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  That school is a ways away from the one they stationed us at. And if Mephisto is up to something, there's not much we can do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  *Sigh*, I hope he can stay focused on the big picture. We don't want him screwing around.
 </t>
   </si>
   <si>
@@ -3252,15 +3252,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  He’s a freak! A monster!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Hey, calm down. Don’t forget, we’re on the same team...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  What do you mean calm down? Did you not see what he was doing with his Arts last time? That shit’s straight-up evil!
+    <t xml:space="preserve">[name="Reunion Soldier"]  He's a freak! A monster!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Hey, calm down. Don't forget, we're on the same team...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  What do you mean calm down? Did you not see what he was doing with his Arts last time? That shit's straight-up evil!
 </t>
   </si>
   <si>
@@ -3268,11 +3268,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Does he even think we’re on the same team? Bullshit!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  I told you to quiet down! Don’t spook the students!
+    <t xml:space="preserve">[name="Reunion Soldier"]  Does he even think we're on the same team? Bullshit!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  I told you to quiet down! Don't spook the students!
 </t>
   </si>
   <si>
@@ -3284,23 +3284,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  I get it. I know how you feel. Who doesn’t?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Honestly, I think about killing Mephisto sometimes. If it wasn’t for the Captain, I’d go kill him right now!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Don’t talk like that. You think I don’t want to kill him? You think the Captain doesn’t?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  But we can’t. He’s our people. And we don’t kill our own people. That’s at the core of our movement.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  But yeah, it’s normal to be angry.... with what he did this time.
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  I get it. I know how you feel. Who doesn't?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  Honestly, I think about killing Mephisto sometimes. If it wasn't for the Captain, I'd go kill him right now!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Don't talk like that. You think I don't want to kill him? You think the Captain doesn't?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  But we can't. He's our people. And we don't kill our own people. That's at the core of our movement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  But yeah, it's normal to be angry.... with what he did this time.
 </t>
   </si>
   <si>
@@ -3316,7 +3316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (Did I hear that right? They didn’t do anything to the students. Why...?)
+    <t xml:space="preserve">[name="???"]  (Did I hear that right? They didn't do anything to the students. Why...?)
 </t>
   </si>
   <si>
@@ -3324,11 +3324,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Maybe the Captain’s troops aren’t. But if you ask me, we’re not exactly doing good for this city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  How many blocks have we leveled? How many people have we dragged out of their homes and killed in the street? It’s a mess out there. We all know.
+    <t xml:space="preserve">[name="Reunion Soldier"]  Maybe the Captain's troops aren't. But if you ask me, we're not exactly doing good for this city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  How many blocks have we leveled? How many people have we dragged out of their homes and killed in the street? It's a mess out there. We all know.
 </t>
   </si>
   <si>
@@ -3336,7 +3336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  We have no choice. The people out there can’t tell who belongs to whose squad. They don’t care.
+    <t xml:space="preserve">[name="Reunion Caster"]  We have no choice. The people out there can't tell who belongs to whose squad. They don't care.
 </t>
   </si>
   <si>
@@ -3344,7 +3344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Rolena, you’re back. Are you ready for the handover?
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Rolena, you're back. Are you ready for the handover?
 </t>
   </si>
   <si>
@@ -3356,15 +3356,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  And you’ll want to keep an eye on the Sarkaz mercenaries.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Oh, and look after the students. The Captain is keeping them here. Don’t hurt them, but don’t let them escape either.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Understood. If the cubs behave, I’m happy to let things be, but what if they act out?
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  And you'll want to keep an eye on the Sarkaz mercenaries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Oh, and look after the students. The Captain is keeping them here. Don't hurt them, but don't let them escape either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Understood. If the cubs behave, I'm happy to let things be, but what if they act out?
 </t>
   </si>
   <si>
@@ -3372,7 +3372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  But what if I have to? What if some of them can use Arts? If they fight back, we’ll have to take action.
+    <t xml:space="preserve">[name="Reunion Caster"]  But what if I have to? What if some of them can use Arts? If they fight back, we'll have to take action.
 </t>
   </si>
   <si>
@@ -3380,15 +3380,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Rolena, I know what you mean. You’ve got fire in you. But don’t get out of hand. This is an order from the Captain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Keep your emotions under control. Don’t let them overpower your judgment.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Hah. If it’s from the Captain, I will abide.
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Rolena, I know what you mean. You've got fire in you. But don't get out of hand. This is an order from the Captain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Keep your emotions under control. Don't let them overpower your judgment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Hah. If it's from the Captain, I will abide.
 </t>
   </si>
   <si>
@@ -3396,7 +3396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  We’ll start the transfer in thirty minutes. Then this place is your responsibility... What exactly that means is up to you.
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  We'll start the transfer in thirty minutes. Then this place is your responsibility... What exactly that means is up to you.
 </t>
   </si>
   <si>
@@ -3404,11 +3404,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I said I’ll abide, but I don’t handle it all personally. Threats, intimidation, and terror make people behave. We’ll do what it takes...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Hey, I’m just kidding. Don’t look at me like that. I know what I have to do.
+    <t xml:space="preserve">[name="Reunion Caster"]  I said I'll abide, but I don't handle it all personally. Threats, intimidation, and terror make people behave. We'll do what it takes...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Hey, I'm just kidding. Don't look at me like that. I know what I have to do.
 </t>
   </si>
   <si>
@@ -3416,7 +3416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Seriously, I don’t care about the plan or whatever. Have you thought about where we’re going to end up if this city goes down?
+    <t xml:space="preserve">[name="Reunion Soldier"]  Seriously, I don't care about the plan or whatever. Have you thought about where we're going to end up if this city goes down?
 </t>
   </si>
   <si>
@@ -3428,11 +3428,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  No. We can go anywhere. Someday, we’ll be able to go anywhere we want.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  That’d be nice. You think that day will really come?
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  No. We can go anywhere. Someday, we'll be able to go anywhere we want.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  That'd be nice. You think that day will really come?
 </t>
   </si>
   <si>
@@ -3440,7 +3440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (What’s so funny? Those bastards. They come out of nowhere and occupy the city. They imprison us here, and for what?)
+    <t xml:space="preserve">[name="???"]  (What's so funny? Those bastards. They come out of nowhere and occupy the city. They imprison us here, and for what?)
 </t>
   </si>
   <si>
@@ -3448,11 +3448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (Dammit, what’s happening outside then?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  (I can’t stay here anymore. I have to get back.)
+    <t xml:space="preserve">[name="???"]  (Dammit, what's happening outside then?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  (I can't stay here anymore. I have to get back.)
 </t>
   </si>
   <si>
@@ -3460,7 +3460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (They didn’t see me. Now’s my chance...!)
+    <t xml:space="preserve">[name="???"]  (They didn't see me. Now's my chance...!)
 </t>
   </si>
   <si>
@@ -3480,11 +3480,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Squad Leader"]  Anyway, that’s the deal. It’s up to you now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Go on already. Don’t let us hold up your mission.
+    <t xml:space="preserve">[name="Reunion Squad Leader"]  Anyway, that's the deal. It's up to you now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  Go on already. Don't let us hold up your mission.
 </t>
   </si>
   <si>
@@ -3492,7 +3492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  He’s gone.
+    <t xml:space="preserve">[name="Reunion Soldier"]  He's gone.
 </t>
   </si>
   <si>
@@ -3500,15 +3500,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  What’s ours? Didn’t he just say your job is to watch those students and don’t let them out?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Right. What’s your point?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Don’t be play dumb. You really didn’t notice?
+    <t xml:space="preserve">[name="Reunion Soldier"]  What's ours? Didn't he just say your job is to watch those students and don't let them out?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Right. What's your point?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  Don't be play dumb. You really didn't notice?
 </t>
   </si>
   <si>
@@ -3516,15 +3516,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Looks like you’ve been doing well under the Captain. And that training sharpened you up good. Better than I expected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Don’t mince words.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Fine. I don’t like to beat around the bush either.
+    <t xml:space="preserve">[name="Reunion Caster"]  Looks like you've been doing well under the Captain. And that training sharpened you up good. Better than I expected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  Don't mince words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Fine. I don't like to beat around the bush either.
 </t>
   </si>
   <si>
@@ -3532,27 +3532,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  You really think I’m that stupid?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Turns out you’re not.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Say, didn’t I hear that you’re from around here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  What’s it to you? I know you are too. I’ve seen you in the Old Quarter, Rolena the Tailor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  But what does it matter? We’re both Infected now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  And we all know what we’ve done. So who cares where we’re from?
+    <t xml:space="preserve">[name="Reunion Soldier"]  You really think I'm that stupid?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Turns out you're not.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Say, didn't I hear that you're from around here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  What's it to you? I know you are too. I've seen you in the Old Quarter, Rolena the Tailor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  But what does it matter? We're both Infected now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  And we all know what we've done. So who cares where we're from?
 </t>
   </si>
   <si>
@@ -3560,15 +3560,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I figure I’d have to break a leg or two to teach her to stay in her room. Would that have gone against orders? Would that have been a bridge too far?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Hah. You’re a real hardass.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Or I could have just killed her. The Captain’s team is gone anyway. Besides the guerillas, who’s going to care if I kill a student or two?
+    <t xml:space="preserve">[name="Reunion Caster"]  I figure I'd have to break a leg or two to teach her to stay in her room. Would that have gone against orders? Would that have been a bridge too far?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  Hah. You're a real hardass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Or I could have just killed her. The Captain's team is gone anyway. Besides the guerillas, who's going to care if I kill a student or two?
 </t>
   </si>
   <si>
@@ -3576,23 +3576,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  You wouldn’t do that. You wouldn’t go against the Captain’s orders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  You’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  The group under the old man, Patriot, they’ve had a rough go of it too, huh? Those kids have made a lot of noise for them over the past week.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  If we don’t do something, the students won’t know fear, and we’ll have the bolder ones looking to get out every other day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  They don’t know what it’s like outside. They don’t know how bad it’s gotten.
+    <t xml:space="preserve">[name="Reunion Soldier"]  You wouldn't do that. You wouldn't go against the Captain's orders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  You're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  The group under the old man, Patriot, they've had a rough go of it too, huh? Those kids have made a lot of noise for them over the past week.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  If we don't do something, the students won't know fear, and we'll have the bolder ones looking to get out every other day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  They don't know what it's like outside. They don't know how bad it's gotten.
 </t>
   </si>
   <si>
@@ -3608,7 +3608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Come on, didn’t you just let that girl go? It’s because you were afraid I’d catch her and do something to her, right?
+    <t xml:space="preserve">[name="Reunion Caster"]  Come on, didn't you just let that girl go? It's because you were afraid I'd catch her and do something to her, right?
 </t>
   </si>
   <si>
@@ -3620,11 +3620,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I’m curious. Do you feel for the people here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  No matter how they treated you before, how they treated your brothers, just because you were Infected... You don’t hate them?
+    <t xml:space="preserve">[name="Reunion Caster"]  I'm curious. Do you feel for the people here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  No matter how they treated you before, how they treated your brothers, just because you were Infected... You don't hate them?
 </t>
   </si>
   <si>
@@ -3632,11 +3632,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Cut the crap! I just don’t think a schoolgirl can cause that much trouble, even if she wanders around the campus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  That’s all.
+    <t xml:space="preserve">[name="Reunion Soldier"]  Cut the crap! I just don't think a schoolgirl can cause that much trouble, even if she wanders around the campus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  That's all.
 </t>
   </si>
   <si>
@@ -3644,35 +3644,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  What bullshit? Don’t change the subject. You saw that girl too!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  So, since you’re such a ruthless killer, why didn’t you drag her out and beat her to a pulp?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I’m not like you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Oh? Can’t even own up to it——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I’m not like you. I’m not you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I didn’t drag her out precisely because I know she’s not just wandering around the school.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  It’s clear as day. That girl’s trying to escape.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Once she gets out of the campus and our 'controlled' area, she’ll find a place that’s not so peaceful.
+    <t xml:space="preserve">[name="Reunion Soldier"]  What bullshit? Don't change the subject. You saw that girl too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  So, since you're such a ruthless killer, why didn't you drag her out and beat her to a pulp?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  I'm not like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Soldier"]  Oh? Can't even own up to it——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  I'm not like you. I'm not you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  I didn't drag her out precisely because I know she's not just wandering around the school.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  It's clear as day. That girl's trying to escape.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Once she gets out of the campus and our 'controlled' area, she'll find a place that's not so peaceful.
 </t>
   </si>
   <si>
@@ -3680,15 +3680,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Soldier"]  Why the hell didn’t you stop her?! If she gets out, she’s gonna, she’s gonna...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Yep. She’s walking into her own grave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  Why should I stop her? Even if I caught her, I couldn’t do anything. Captain’s orders.
+    <t xml:space="preserve">[name="Reunion Soldier"]  Why the hell didn't you stop her?! If she gets out, she's gonna, she's gonna...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Yep. She's walking into her own grave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Why should I stop her? Even if I caught her, I couldn't do anything. Captain's orders.
 </t>
   </si>
   <si>
@@ -3696,11 +3696,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I told you, I’m not like you. You’re still soft. Even now, you’re worried about those kids.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  But me? I can’t forget what me and my family suffered at the hands of this city.
+    <t xml:space="preserve">[name="Reunion Caster"]  I told you, I'm not like you. You're still soft. Even now, you're worried about those kids.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  But me? I can't forget what me and my family suffered at the hands of this city.
 </t>
   </si>
   <si>
@@ -3708,11 +3708,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Caster"]  I hope that girl doesn’t die too quickly. Haha! Open your eyes and take a good look at the suffering around you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve never seen this side of the city.
+    <t xml:space="preserve">[name="Reunion Caster"]  I hope that girl doesn't die too quickly. Haha! Open your eyes and take a good look at the suffering around you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've never seen this side of the city.
 </t>
   </si>
   <si>
@@ -3740,15 +3740,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (I can’t hear anything. That should be temporary. And I can’t feel my left hand... looks like my little finger is broken too. Hrm...)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  (There’s a sharp pain in my abdomen. But it’s no big deal yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  (Don’t panic, Zoya. You made it this far. Just keep carrying on like this. Don’t rush it. Most important thing is to stay hidden from the bad guys...)
+    <t xml:space="preserve">[name="???"]  (I can't hear anything. That should be temporary. And I can't feel my left hand... looks like my little finger is broken too. Hrm...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  (There's a sharp pain in my abdomen. But it's no big deal yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  (Don't panic, Zoya. You made it this far. Just keep carrying on like this. Don't rush it. Most important thing is to stay hidden from the bad guys...)
 </t>
   </si>
   <si>
@@ -3764,15 +3764,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (What the hell happened...?! Where are the police? Where’s the military? Why has nobody come to restore order yet?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  (Looks like I can’t get through ahead. And those people fighting look like Reunion? Who’s fighting against them...?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Damn. I’m almost home. Why does it have to be now?!
+    <t xml:space="preserve">[name="???"]  (What the hell happened...?! Where are the police? Where's the military? Why has nobody come to restore order yet?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  (Looks like I can't get through ahead. And those people fighting look like Reunion? Who's fighting against them...?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Damn. I'm almost home. Why does it have to be now?!
 </t>
   </si>
   <si>
@@ -3780,7 +3780,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Civilian"]  Those bastards! They’re monsters! Monsters!
+    <t xml:space="preserve">[name="Ursus Civilian"]  Those bastards! They're monsters! Monsters!
 </t>
   </si>
   <si>
@@ -3788,7 +3788,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Um, what’s happening over——
+    <t xml:space="preserve">[name="???"]  Um, what's happening over——
 </t>
   </si>
   <si>
@@ -3800,11 +3800,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Woman"]  My baby! Where’s my baby?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Civilian"]  They’re coming! Shit! Hurry!
+    <t xml:space="preserve">[name="Ursus Woman"]  My baby! Where's my baby?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Civilian"]  They're coming! Shit! Hurry!
 </t>
   </si>
   <si>
@@ -3836,19 +3836,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (Finally, the police! Now we’ll be okay.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Police"]  There’s a situation up ahead. This block is now on lockdown!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Police"]  Hey! Do you have a deathwish?! Turn back! There’s Reunion that way!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Police"]  ...Hold on, aren’t you Zoya? What are you doing here?!
+    <t xml:space="preserve">[name="???"]  (Finally, the police! Now we'll be okay.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Police"]  There's a situation up ahead. This block is now on lockdown!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Police"]  Hey! Do you have a deathwish?! Turn back! There's Reunion that way!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Police"]  ...Hold on, aren't you Zoya? What are you doing here?!
 </t>
   </si>
   <si>
@@ -3864,11 +3864,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Civilian"]  You have to let us out! They’re killing people! You’re the police, you have to know what to do!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Don’t panic! Calm down. We’re going to——
+    <t xml:space="preserve">[name="Ursus Civilian"]  You have to let us out! They're killing people! You're the police, you have to know what to do!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Don't panic! Calm down. We're going to——
 </t>
   </si>
   <si>
@@ -3876,11 +3876,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  I’m okay...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Police"]  Don’t push! Stop! I said calm the hell down!
+    <t xml:space="preserve">[name="Valery"]  I'm okay...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Police"]  Don't push! Stop! I said calm the hell down!
 </t>
   </si>
   <si>
@@ -3888,15 +3888,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Civilian"]  They’re coming! They’re going to kill us——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Hey! That’s enough!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Civilian"]  Get out of my way! I don’t wanna die...
+    <t xml:space="preserve">[name="Ursus Civilian"]  They're coming! They're going to kill us——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Hey! That's enough!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Civilian"]  Get out of my way! I don't wanna die...
 </t>
   </si>
   <si>
@@ -3908,7 +3908,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  I’m fine. The people are all in a panic these days. We see this a lot. We’re almost used to it.
+    <t xml:space="preserve">[name="Valery"]  I'm fine. The people are all in a panic these days. We see this a lot. We're almost used to it.
 </t>
   </si>
   <si>
@@ -3916,11 +3916,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  Doesn’t matter. I don’t have much time to talk with you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  I have to stop these civilians. It’s too dangerous up ahead. Those people out there are monsters. They’re nothing like the normal Infected.
+    <t xml:space="preserve">[name="Valery"]  Doesn't matter. I don't have much time to talk with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  I have to stop these civilians. It's too dangerous up ahead. Those people out there are monsters. They're nothing like the normal Infected.
 </t>
   </si>
   <si>
@@ -3944,11 +3944,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  And yours is pretty far from here. How did... Never mind. Doesn’t matter. You need to come with me. It’s too dangerous here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Wait, Uncle, you still didn’t tell me what happened!
+    <t xml:space="preserve">[name="Valery"]  And yours is pretty far from here. How did... Never mind. Doesn't matter. You need to come with me. It's too dangerous here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Wait, Uncle, you still didn't tell me what happened!
 </t>
   </si>
   <si>
@@ -3960,7 +3960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  My family... is Dad fighting Reunion too? Where is he? And where’s Mom? I have to find——
+    <t xml:space="preserve">[name="???"]  My family... is Dad fighting Reunion too? Where is he? And where's Mom? I have to find——
 </t>
   </si>
   <si>
@@ -3968,7 +3968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Wh... why aren’t you saying anything...?
+    <t xml:space="preserve">[name="???"]  Wh... why aren't you saying anything...?
 </t>
   </si>
   <si>
@@ -4000,7 +4000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  We had to look at the situation and make appropriate judgments. It’s our responsibility. There were trade-offs.
+    <t xml:space="preserve">[name="Valery"]  We had to look at the situation and make appropriate judgments. It's our responsibility. There were trade-offs.
 </t>
   </si>
   <si>
@@ -4008,7 +4008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  It was a disaster. It’s hard to imagine how anything like that happened.
+    <t xml:space="preserve">[name="Valery"]  It was a disaster. It's hard to imagine how anything like that happened.
 </t>
   </si>
   <si>
@@ -4016,15 +4016,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  I won’t tell you your mother might have escaped. You’re a smart kid. I can’t lie to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  I’m sorry. We were too late.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  You’re lying. You have to be... that’s impossible.
+    <t xml:space="preserve">[name="Valery"]  I won't tell you your mother might have escaped. You're a smart kid. I can't lie to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  I'm sorry. We were too late.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  You're lying. You have to be... that's impossible.
 </t>
   </si>
   <si>
@@ -4032,19 +4032,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  Zoya... Listen to me. I’m telling the truth.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  You can’t be. Dad said...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He said he’d protect us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  There’s nothing to worry about.
+    <t xml:space="preserve">[name="Valery"]  Zoya... Listen to me. I'm telling the truth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  You can't be. Dad said...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said he'd protect us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  There's nothing to worry about.
 </t>
   </si>
   <si>
@@ -4060,15 +4060,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Man"]  You want to be like your papa? Haha, really? It’s hard work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  Once you grow up, you’ll understand all that Papa does. If that doesn’t change your mind, then I’m looking forward to working with you, Zoya.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s true. He did say it.
+    <t xml:space="preserve">[name="Man"]  You want to be like your papa? Haha, really? It's hard work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  Once you grow up, you'll understand all that Papa does. If that doesn't change your mind, then I'm looking forward to working with you, Zoya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's true. He did say it.
 </t>
   </si>
   <si>
@@ -4080,11 +4080,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t cry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can’t cry.
+    <t xml:space="preserve">Don't cry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can't cry.
 </t>
   </si>
   <si>
@@ -4096,7 +4096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  ...I’m fine. Don’t worry.
+    <t xml:space="preserve">[name="???"]  ...I'm fine. Don't worry.
 </t>
   </si>
   <si>
@@ -4108,7 +4108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  The point is, those awful Infected came out of nowhere, and there’s too many of them.
+    <t xml:space="preserve">[name="Valery"]  The point is, those awful Infected came out of nowhere, and there's too many of them.
 </t>
   </si>
   <si>
@@ -4116,15 +4116,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  The Army has not come. But our comms are working fine. We have no idea what’s going on with them.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  It’s just us Guardsmen. There’s not much we can do to stop them. But at least you’ll be a little safer with us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Oh, your father isn’t with the squad now. He went over to Peterheim Middle School.
+    <t xml:space="preserve">[name="Valery"]  The Army has not come. But our comms are working fine. We have no idea what's going on with them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  It's just us Guardsmen. There's not much we can do to stop them. But at least you'll be a little safer with us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Oh, your father isn't with the squad now. He went over to Peterheim Middle School.
 </t>
   </si>
   <si>
@@ -4136,19 +4136,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  Haven’t you heard? The Infected locked up another group of kids in Peterheim, just like your school.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  It’s weird. They don’t seem to be doing anything to them. No movement out of there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  But there’s been some news in the last few days. Reunion seems to be pulling out. No matter what they’re up to, we have to have a countermeasure in place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  We can’t spare much manpower. Only a few districts are calm, and others are so out of control that we could only send a small team to Peterheim.
+    <t xml:space="preserve">[name="Valery"]  Haven't you heard? The Infected locked up another group of kids in Peterheim, just like your school.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  It's weird. They don't seem to be doing anything to them. No movement out of there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  But there's been some news in the last few days. Reunion seems to be pulling out. No matter what they're up to, we have to have a countermeasure in place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  We can't spare much manpower. Only a few districts are calm, and others are so out of control that we could only send a small team to Peterheim.
 </t>
   </si>
   <si>
@@ -4156,27 +4156,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  He volunteered. Your father’s experienced. I’m not worried.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  And since you’re safe and sound, he’ll rest easy too. A shame we don’t have a way to contact him...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  We’re short-handed everywhere. Damn it, what the hell’s gotten into these Infected?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Let’s save the rest for later. We can’t stay here any longer. There’s no telling when the Army could show up... Where in hellfire is the Third Army when you need them?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Anyway, Zoya, you take cover. Once the Army takes over, it’ll be okay. This mob is no match for the soldiers of Ursus!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  And don’t you worry. As soon as we free up some manpower, we’ll send someone to Peterheim to rescue the students and pick up your father. Not to mention your school, all the schools.
+    <t xml:space="preserve">[name="Valery"]  He volunteered. Your father's experienced. I'm not worried.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  And since you're safe and sound, he'll rest easy too. A shame we don't have a way to contact him...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  We're short-handed everywhere. Damn it, what the hell's gotten into these Infected?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Let's save the rest for later. We can't stay here any longer. There's no telling when the Army could show up... Where in hellfire is the Third Army when you need them?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Anyway, Zoya, you take cover. Once the Army takes over, it'll be okay. This mob is no match for the soldiers of Ursus!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  And don't you worry. As soon as we free up some manpower, we'll send someone to Peterheim to rescue the students and pick up your father. Not to mention your school, all the schools.
 </t>
   </si>
   <si>
@@ -4188,11 +4188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I said, if you don’t have any free hands, I can go get my dad!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Don’t be stupid! That’s way too dangerous! Absolutely not!
+    <t xml:space="preserve">[name="???"]  I said, if you don't have any free hands, I can go get my dad!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Don't be stupid! That's way too dangerous! Absolutely not!
 </t>
   </si>
   <si>
@@ -4200,23 +4200,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I can tell we’re in trouble here. And it looks like things are... they’re getting worse, aren’t they?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  We don’t have time to waste. The situation is getting more dangerous by the second. And if help isn’t coming, you’re only going to need more hands. So why not take mine?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’ve watched how they operate at my school. I know how they patrol, I know how many men they put in a squad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  It’s a different school, but their tactics should be pretty much the same...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I’ve been to Peterheim before. I know the campus layout. And I managed to dodge Reunion all the way here.
+    <t xml:space="preserve">[name="???"]  I can tell we're in trouble here. And it looks like things are... they're getting worse, aren't they?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  We don't have time to waste. The situation is getting more dangerous by the second. And if help isn't coming, you're only going to need more hands. So why not take mine?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I've watched how they operate at my school. I know how they patrol, I know how many men they put in a squad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  It's a different school, but their tactics should be pretty much the same...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I've been to Peterheim before. I know the campus layout. And I managed to dodge Reunion all the way here.
 </t>
   </si>
   <si>
@@ -4224,19 +4224,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  It’s not the same!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Listen to me. This isn’t anything like what you’ve seen at the police station. It’s not a drill. It’s nothing like you think.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Zoya, I know you’re strong, I know you're skilled. But you’re still a kidl. Your life has value! This is not for you to do!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  I know. It’s making things worse for everyone, and I probably can’t help much at all.
+    <t xml:space="preserve">[name="Valery"]  It's not the same!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Listen to me. This isn't anything like what you've seen at the police station. It's not a drill. It's nothing like you think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Zoya, I know you're strong, I know you're skilled. But you're still a kidl. Your life has value! This is not for you to do!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  I know. It's making things worse for everyone, and I probably can't help much at all.
 </t>
   </si>
   <si>
@@ -4248,11 +4248,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I’ll...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’m scared to think. I have to act.
+    <t xml:space="preserve">[name="???"]  I'll...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm scared to think. I have to act.
 </t>
   </si>
   <si>
@@ -4264,7 +4264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  It’s not like you’re going to listen to me anyway.
+    <t xml:space="preserve">[name="Valery"]  It's not like you're going to listen to me anyway.
 </t>
   </si>
   <si>
@@ -4284,15 +4284,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  It’s supposed to connect to military comm networks. I’m not sure if it still works.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  If you’re lucky, you can make contact with the Army once you reach Peterheim. If you can report the situation to them from there, that would be a big help.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  I know I can’t stop you. Honestly, I have too much on my plate right now to worry about watching you. What you do now is entirely on you.
+    <t xml:space="preserve">[name="Valery"]  It's supposed to connect to military comm networks. I'm not sure if it still works.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  If you're lucky, you can make contact with the Army once you reach Peterheim. If you can report the situation to them from there, that would be a big help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  I know I can't stop you. Honestly, I have too much on my plate right now to worry about watching you. What you do now is entirely on you.
 </t>
   </si>
   <si>
@@ -4300,11 +4300,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Valery"]  Don’t be a hero. Protecting yourself is your first priority.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Valery"]  Your father wouldn’t want to see you in danger.
+    <t xml:space="preserve">[name="Valery"]  Don't be a hero. Protecting yourself is your first priority.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Valery"]  Your father wouldn't want to see you in danger.
 </t>
   </si>
   <si>
@@ -4316,7 +4316,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  I’ll definitely...
+    <t xml:space="preserve">[name="???"]  I'll definitely...
 </t>
   </si>
   <si>
@@ -4324,7 +4324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t finish the sentence.
+    <t xml:space="preserve">I don't finish the sentence.
 </t>
   </si>
   <si>
@@ -4340,7 +4340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (Phew, I’m here.)
+    <t xml:space="preserve">[name="???"]  (Phew, I'm here.)
 </t>
   </si>
   <si>
@@ -4348,7 +4348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (Looks like the Reunion guys are pretty much the same. Hourly intervals using one patrol team... shouldn’t be tough to clear them.)
+    <t xml:space="preserve">[name="???"]  (Looks like the Reunion guys are pretty much the same. Hourly intervals using one patrol team... shouldn't be tough to clear them.)
 </t>
   </si>
   <si>
@@ -4356,7 +4356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (Huh? What’s that over there...?)
+    <t xml:space="preserve">[name="???"]  (Huh? What's that over there...?)
 </t>
   </si>
   <si>
@@ -4384,7 +4384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (There’s scorch marks on the floor and walls. Everything is charred... But these kids, they didn’t burn to death...)
+    <t xml:space="preserve">[name="???"]  (There's scorch marks on the floor and walls. Everything is charred... But these kids, they didn't burn to death...)
 </t>
   </si>
   <si>
@@ -4396,15 +4396,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  (Did Reunion do this? But these wounds don’t look like those thugs’ handiwork.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]   (And these students should be useful to them. Reunion wouldn’t want to hurt kids, would they?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Hm? What’s that...?
+    <t xml:space="preserve">[name="???"]  (Did Reunion do this? But these wounds don't look like those thugs' handiwork.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]   (And these students should be useful to them. Reunion wouldn't want to hurt kids, would they?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Hm? What's that...?
 </t>
   </si>
   <si>
@@ -4416,15 +4416,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It’s a scene I never imagined. Not even in my darkest nightmares.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  Isn’t it about time for the weather to turn? Hey, Zoya, what do you think of this outfit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Man"]  Oh? Something I’ve been planning with your mom for a while now. *Sigh,* I’m always in uniform. It’s so hard for me to find other things to wear.
+    <t xml:space="preserve">It's a scene I never imagined. Not even in my darkest nightmares.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  Isn't it about time for the weather to turn? Hey, Zoya, what do you think of this outfit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Man"]  Oh? Something I've been planning with your mom for a while now. *Sigh,* I'm always in uniform. It's so hard for me to find other things to wear.
 </t>
   </si>
   <si>
@@ -4432,7 +4432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Man"]  It’s a date for me and your mom.
+    <t xml:space="preserve">[name="Man"]  It's a date for me and your mom.
 </t>
   </si>
   <si>
@@ -4444,11 +4444,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Once the winter’s over, when the weather turns, we’ll have a little party, huh?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drink some mead, cook some pancakes around the fire. We’ll hold hands, sing, and dance in the muddy dirt. Even if the ground’s still frozen, there’ll be some little flowers blooming.
+    <t xml:space="preserve">Once the winter's over, when the weather turns, we'll have a little party, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink some mead, cook some pancakes around the fire. We'll hold hands, sing, and dance in the muddy dirt. Even if the ground's still frozen, there'll be some little flowers blooming.
 </t>
   </si>
   <si>
@@ -4460,7 +4460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Logistics Worker"]  Here’s your registration card. You’ll want to hold onto that.
+    <t xml:space="preserve">[name="Logistics Worker"]  Here's your registration card. You'll want to hold onto that.
 </t>
   </si>
   <si>
@@ -4472,11 +4472,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Absinthe"]  (It’s easy enough, once you get used to it.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Absinthe"]  (I’m hungry... Might as well refill my meal card.)
+    <t xml:space="preserve">[name="Absinthe"]  (It's easy enough, once you get used to it.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Absinthe"]  (I'm hungry... Might as well refill my meal card.)
 </t>
   </si>
   <si>
@@ -4484,11 +4484,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  That was super fun! The Doctor is so good at cards. Didn’t lose a single hand! And then taught me how to 'poof' out a coin! Like this... 'poof!'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosa"]  Hehe, that is a lot of fun indeed. Let’s get Leto to join next time?
+    <t xml:space="preserve">[name="Gummy"]  That was super fun! The Doctor is so good at cards. Didn't lose a single hand! And then taught me how to 'poof' out a coin! Like this... 'poof!'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosa"]  Hehe, that is a lot of fun indeed. Let's get Leto to join next time?
 </t>
   </si>
   <si>
@@ -4496,7 +4496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gummy"]  C’monnnn!
+    <t xml:space="preserve">[name="Gummy"]  C'monnnn!
 </t>
   </si>
   <si>
@@ -4504,11 +4504,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Hmph. Who cares if she doesn’t wanna go? She’s just scared she’ll lose to me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  What? Who’s gonna lose? You wanna bet?! Let’s see who’s scared of who!
+    <t xml:space="preserve">[name="Zima"]  Hmph. Who cares if she doesn't wanna go? She's just scared she'll lose to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  What? Who's gonna lose? You wanna bet?! Let's see who's scared of who!
 </t>
   </si>
   <si>
@@ -4520,11 +4520,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Absinthe"]  Those uniforms... They’re——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They’re from Peterheim...!
+    <t xml:space="preserve">[name="Absinthe"]  Those uniforms... They're——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They're from Peterheim...!
 </t>
   </si>
   <si>
